--- a/assets/timetable_template.xlsx
+++ b/assets/timetable_template.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+  <si>
+    <t>Day</t>
+  </si>
   <si>
     <t>Registration</t>
   </si>
   <si>
-    <t>L</t>
+    <t>Lunch</t>
   </si>
   <si>
     <t>Y10C Reg. @42</t>
@@ -199,51 +202,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -255,93 +262,111 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
